--- a/docs/Q版三国塔防需求文档 -- 2025-02-14.xlsx
+++ b/docs/Q版三国塔防需求文档 -- 2025-02-14.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文件资料\创业之路\游戏人生\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4E4418-7117-40D6-8E3C-7F86FDB7DD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="12960" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -24,489 +18,633 @@
     <sheet name="商店系统" sheetId="12" r:id="rId9"/>
     <sheet name="怪物系统" sheetId="9" r:id="rId10"/>
     <sheet name="抽卡系统" sheetId="7" r:id="rId11"/>
-    <sheet name="迭代一" sheetId="2" r:id="rId12"/>
-    <sheet name="迭代二" sheetId="3" r:id="rId13"/>
-    <sheet name="迭代三" sheetId="4" r:id="rId14"/>
+    <sheet name="资源系统" sheetId="16" r:id="rId12"/>
+    <sheet name="迭代一" sheetId="2" r:id="rId13"/>
+    <sheet name="迭代二" sheetId="3" r:id="rId14"/>
+    <sheet name="迭代三" sheetId="4" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
+  <si>
+    <t>游戏分类</t>
+  </si>
+  <si>
+    <t>塔防Q版（集卡）</t>
+  </si>
+  <si>
+    <t>游戏界面</t>
+  </si>
+  <si>
+    <t>竖屏</t>
+  </si>
+  <si>
+    <t>战斗风格</t>
+  </si>
+  <si>
+    <t>AI+手动点击屏幕</t>
+  </si>
+  <si>
+    <t>游戏机制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻击时间间隔 </t>
+  </si>
+  <si>
+    <t>游戏对象</t>
+  </si>
+  <si>
+    <t>上班族（游戏时间少）</t>
+  </si>
+  <si>
+    <t>游戏金币</t>
+  </si>
+  <si>
+    <t>铜钱 + 银 + 金（充钱）</t>
+  </si>
+  <si>
+    <t>收益来源</t>
+  </si>
+  <si>
+    <t>充值抽卡</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>工作量</t>
+  </si>
+  <si>
+    <t>1、武将信息+数量</t>
+  </si>
+  <si>
+    <t>hxc</t>
+  </si>
+  <si>
+    <t>2、武器数量</t>
+  </si>
+  <si>
+    <t>pfq</t>
+  </si>
+  <si>
+    <t>3、技能效果</t>
+  </si>
+  <si>
+    <t>4、三国地图（剧情）</t>
+  </si>
+  <si>
+    <t>迭代二</t>
+  </si>
+  <si>
+    <t>5、开局引导</t>
+  </si>
+  <si>
+    <t>6、主人公</t>
+  </si>
+  <si>
+    <t>7、抽卡系统</t>
+  </si>
+  <si>
+    <t>8、资源系统--锻造石+钱币+商店</t>
+  </si>
+  <si>
+    <t>9、充值系统</t>
+  </si>
+  <si>
+    <t>10、任务系统</t>
+  </si>
+  <si>
+    <t>11、怪物系统</t>
+  </si>
+  <si>
+    <t>12、成就系统</t>
+  </si>
+  <si>
+    <t>武将可以给其他武将换经验</t>
+  </si>
+  <si>
+    <t>PVP个人资料</t>
+  </si>
+  <si>
+    <t>武将人名</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>觉醒-迭代二</t>
+  </si>
+  <si>
+    <t>分值</t>
+  </si>
+  <si>
+    <t>☆☆☆☆☆</t>
+  </si>
+  <si>
+    <t>称号--充值</t>
+  </si>
+  <si>
+    <t>装备类型</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 稀有</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 神器</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>攻击力 +5%，攻击速度 +2%</t>
+  </si>
+  <si>
+    <t>攻击力 +10%，攻击速度 +5%</t>
+  </si>
+  <si>
+    <t>攻击力 +15%，攻击速度 +10%</t>
+  </si>
+  <si>
+    <t>攻击力 +20%，攻击速度 +15%</t>
+  </si>
+  <si>
+    <t>攻击力 +30%，攻击速度 +20%</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>防御力 +5%，生命值 +5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    防御力 +10%，生命值 +10%</t>
+  </si>
+  <si>
+    <t>防御力 +15%，生命值 +15%</t>
+  </si>
+  <si>
+    <t>防御力 +20%，生命值 +20%</t>
+  </si>
+  <si>
+    <t>防御力 +30%，生命值 +25%</t>
+  </si>
+  <si>
+    <t>护腿</t>
+  </si>
+  <si>
+    <t>防御力 +3%，攻击速度 +2%</t>
+  </si>
+  <si>
+    <t>防御力 +6%，攻击速度 +4%</t>
+  </si>
+  <si>
+    <t>防御力 +10%，攻击速度 +6%</t>
+  </si>
+  <si>
+    <t>防御力 +12%，攻击速度 +8%</t>
+  </si>
+  <si>
+    <t>防御力 +15%，攻击速度 +10%</t>
+  </si>
+  <si>
+    <t>配饰</t>
+  </si>
+  <si>
+    <t>暴击率 +2%，暴击伤害 +5%</t>
+  </si>
+  <si>
+    <t>暴击率 +5%，暴击伤害 +10%</t>
+  </si>
+  <si>
+    <t>暴击率 +8%，暴击伤害 +15%</t>
+  </si>
+  <si>
+    <t>暴击率 +12%，暴击伤害 +20%</t>
+  </si>
+  <si>
+    <t>暴击率 +15%，暴击伤害 +25%</t>
+  </si>
+  <si>
+    <t>装备等级</t>
+  </si>
+  <si>
+    <t>增幅成功率</t>
+  </si>
+  <si>
+    <t>属性提升百分比</t>
+  </si>
+  <si>
+    <t>资源消耗（以等级 1 为 100% 基准）</t>
+  </si>
+  <si>
+    <t>等级 1 → 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            100%（基础资源-锻造材料+铜币+银币+金币）</t>
+  </si>
+  <si>
+    <t>等级 2 → 3</t>
+  </si>
+  <si>
+    <t>等级 3 → 4</t>
+  </si>
+  <si>
+    <t>等级 4 → 5</t>
+  </si>
+  <si>
+    <t>等级 5 → 6</t>
+  </si>
+  <si>
+    <t>等级 6 → 7</t>
+  </si>
+  <si>
+    <t>等级 7 → 8</t>
+  </si>
+  <si>
+    <t>等级 8 → 9</t>
+  </si>
+  <si>
+    <t>等级 9 → 10</t>
+  </si>
+  <si>
+    <t>锻造材料获取来源</t>
+  </si>
+  <si>
+    <t>打怪升级+任务+分解武器+商店购买</t>
+  </si>
+  <si>
+    <t>装备属性</t>
+  </si>
+  <si>
+    <t>每日任务</t>
+  </si>
+  <si>
+    <t>月卡</t>
+  </si>
+  <si>
+    <t>金币充值</t>
+  </si>
+  <si>
+    <t>VIP等级</t>
+  </si>
+  <si>
+    <t>1-&gt;12</t>
+  </si>
+  <si>
+    <t>商店系统</t>
+  </si>
+  <si>
+    <t>铜钱</t>
+  </si>
+  <si>
+    <t>进阶石</t>
+  </si>
+  <si>
+    <t>铁矿</t>
+  </si>
+  <si>
+    <t>战魂石</t>
+  </si>
+  <si>
+    <t>和田玉</t>
+  </si>
+  <si>
+    <t>武将</t>
+  </si>
+  <si>
+    <t>获取方式</t>
+  </si>
+  <si>
+    <t>1.每日三次看广告获取
+2.免费送一次</t>
+  </si>
+  <si>
+    <t>铜钱购买，每日三次</t>
+  </si>
+  <si>
+    <t>和田玉购买，每日三次</t>
+  </si>
+  <si>
+    <t>1.每日随机刷新，不同品级都刷一个，普通稀有铜钱买，史诗传说和田玉买
+2.可以每天刷新三次（限制时间刷新，或和田玉直接刷）</t>
+  </si>
+  <si>
+    <t>爆装备</t>
+  </si>
+  <si>
+    <t>爆资源</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>生命值 (HP)</t>
+  </si>
+  <si>
+    <t>攻击力 (ATK)</t>
+  </si>
+  <si>
+    <t>防御力 (DEF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       抽卡概率</t>
+  </si>
+  <si>
+    <t>分解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       单体攻击，简单技能</t>
+  </si>
+  <si>
+    <t>分解抽卡碎片，10个换一次</t>
+  </si>
+  <si>
+    <t>稀有</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       单体伤害、提高防御或攻击，BUFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       大范围攻击、控制技能、复活友军</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       全体伤害、全体治疗或BUFF，改变战斗局势</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>资源系统</t>
+  </si>
+  <si>
+    <t>打怪，任务，活动，商城兑换，和田玉购买</t>
+  </si>
+  <si>
+    <t>任务，活动，商城兑换，铜钱购买</t>
+  </si>
+  <si>
+    <t>打怪，任务，活动，商城兑换，铜钱购买</t>
+  </si>
+  <si>
+    <t>打怪，任务，活动，商城兑换，和田玉购买，武将回收</t>
+  </si>
+  <si>
+    <t>充值，商城兑换</t>
+  </si>
+  <si>
+    <t>使用场景</t>
+  </si>
+  <si>
+    <t>武器升级，武将升级，主人公升级，抽卡（普通级宝箱）</t>
+  </si>
+  <si>
+    <t>武将升级</t>
+  </si>
+  <si>
+    <t>武器升级</t>
+  </si>
+  <si>
+    <t>商店购买武将</t>
+  </si>
+  <si>
+    <t>商城兑换，抽卡（高级宝箱）</t>
+  </si>
+  <si>
+    <t>功能分类</t>
+  </si>
   <si>
     <t>功能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竖屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI+手动点击屏幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗风格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">攻击时间间隔 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上班族（游戏时间少）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔防Q版（集卡）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值抽卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜钱 + 银 + 金（充钱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>装备类型</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>攻击力 +5%，攻击速度 +2%</t>
-  </si>
-  <si>
-    <t>攻击力 +10%，攻击速度 +5%</t>
-  </si>
-  <si>
-    <t>攻击力 +15%，攻击速度 +10%</t>
-  </si>
-  <si>
-    <t>攻击力 +20%，攻击速度 +15%</t>
-  </si>
-  <si>
-    <t>攻击力 +30%，攻击速度 +20%</t>
-  </si>
-  <si>
-    <t>护甲</t>
-  </si>
-  <si>
-    <t>防御力 +5%，生命值 +5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    防御力 +10%，生命值 +10%</t>
-  </si>
-  <si>
-    <t>防御力 +15%，生命值 +15%</t>
-  </si>
-  <si>
-    <t>防御力 +20%，生命值 +20%</t>
-  </si>
-  <si>
-    <t>防御力 +30%，生命值 +25%</t>
-  </si>
-  <si>
-    <t>护腿</t>
-  </si>
-  <si>
-    <t>防御力 +3%，攻击速度 +2%</t>
-  </si>
-  <si>
-    <t>防御力 +6%，攻击速度 +4%</t>
-  </si>
-  <si>
-    <t>防御力 +10%，攻击速度 +6%</t>
-  </si>
-  <si>
-    <t>防御力 +12%，攻击速度 +8%</t>
-  </si>
-  <si>
-    <t>防御力 +15%，攻击速度 +10%</t>
-  </si>
-  <si>
-    <t>配饰</t>
-  </si>
-  <si>
-    <t>暴击率 +2%，暴击伤害 +5%</t>
-  </si>
-  <si>
-    <t>暴击率 +5%，暴击伤害 +10%</t>
-  </si>
-  <si>
-    <t>暴击率 +8%，暴击伤害 +15%</t>
-  </si>
-  <si>
-    <t>暴击率 +12%，暴击伤害 +20%</t>
-  </si>
-  <si>
-    <t>暴击率 +15%，暴击伤害 +25%</t>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 稀有</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 神器</t>
-  </si>
-  <si>
-    <t>史诗</t>
-  </si>
-  <si>
-    <t>传说</t>
-  </si>
-  <si>
-    <t>传说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备等级</t>
-  </si>
-  <si>
-    <t>增幅成功率</t>
-  </si>
-  <si>
-    <t>属性提升百分比</t>
-  </si>
-  <si>
-    <t>资源消耗（以等级 1 为 100% 基准）</t>
-  </si>
-  <si>
-    <t>等级 1 → 2</t>
-  </si>
-  <si>
-    <t>等级 2 → 3</t>
-  </si>
-  <si>
-    <t>等级 3 → 4</t>
-  </si>
-  <si>
-    <t>等级 4 → 5</t>
-  </si>
-  <si>
-    <t>等级 5 → 6</t>
-  </si>
-  <si>
-    <t>等级 6 → 7</t>
-  </si>
-  <si>
-    <t>等级 7 → 8</t>
-  </si>
-  <si>
-    <t>等级 8 → 9</t>
-  </si>
-  <si>
-    <t>等级 9 → 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            100%（基础资源-锻造材料+铜币+银币+金币）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将人名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级别</t>
-  </si>
-  <si>
-    <t>生命值 (HP)</t>
-  </si>
-  <si>
-    <t>攻击力 (ATK)</t>
-  </si>
-  <si>
-    <t>防御力 (DEF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       抽卡概率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       单体攻击，简单技能</t>
-  </si>
-  <si>
-    <t>稀有</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       单体伤害、提高防御或攻击，BUFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       大范围攻击、控制技能、复活友军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       全体伤害、全体治疗或BUFF，改变战斗局势</t>
-  </si>
-  <si>
-    <t>分解抽卡碎片，10个换一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☆☆☆☆☆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、武器数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、三国地图（剧情）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、开局引导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、主人公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、抽卡系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、资源系统--锻造石+钱币+商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觉醒-迭代二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将可以给其他武将换经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造材料获取来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打怪升级+任务+分解武器+商店购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜币-&gt;银币-&gt;金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP个人资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-&gt;12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>称号--充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、充值系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、任务系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、怪物系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、武将信息+数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、成就系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hxc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pfq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,8 +657,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -528,27 +852,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -597,7 +1210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -632,7 +1245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -806,365 +1419,360 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="28.1328125" customWidth="1"/>
+    <col min="2" max="2" width="28.1339285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="9" spans="4:7">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>117</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C17"/>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AB4690-66E8-4F28-858B-1D8FFB241F5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA832CD3-31BC-41BC-B09C-7A0006A3F876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.7946428571429" customWidth="1"/>
+    <col min="3" max="3" width="12.7946428571429" customWidth="1"/>
+    <col min="4" max="4" width="16.5982142857143" customWidth="1"/>
+    <col min="5" max="5" width="22.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -1176,18 +1784,18 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1">
         <v>0.6</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>1500</v>
@@ -1199,15 +1807,15 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>2500</v>
@@ -1219,15 +1827,15 @@
         <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>4000</v>
@@ -1239,349 +1847,442 @@
         <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483CF23-D935-4B1C-8D93-067FC3FCFFCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.5357142857143" customWidth="1"/>
+    <col min="2" max="2" width="51.1875" customWidth="1"/>
+    <col min="3" max="3" width="40.6160714285714" customWidth="1"/>
+    <col min="4" max="4" width="48.2053571428571" customWidth="1"/>
+    <col min="5" max="5" width="51.3392857142857" customWidth="1"/>
+    <col min="6" max="6" width="26.1875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB6D266-0DE1-44EF-B775-082B57387BCE}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BA37FC-A341-4E63-8A57-A0B1B4F5BA81}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FBA85F-A355-4B5C-931F-3C1A2C7E4BA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF85FDA1-A514-4877-9A7E-DF6AEE04CAE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFAB824-CC2A-4241-B04F-8C319C76FECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>97</v>
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E363AE69-76C6-4B2A-96A7-60B3172DC294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35CCBCB-4429-4F88-99E2-4174F73387E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" customWidth="1"/>
-    <col min="2" max="2" width="34.19921875" customWidth="1"/>
-    <col min="3" max="3" width="26.796875" customWidth="1"/>
-    <col min="4" max="4" width="30.1328125" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.1964285714286" customWidth="1"/>
+    <col min="2" max="2" width="34.1964285714286" customWidth="1"/>
+    <col min="3" max="3" width="26.7946428571429" customWidth="1"/>
+    <col min="4" max="4" width="30.1339285714286" customWidth="1"/>
+    <col min="5" max="5" width="24.4017857142857" customWidth="1"/>
+    <col min="6" max="6" width="27.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1590,12 +2291,12 @@
         <v>0.05</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>0.9</v>
@@ -1607,23 +2308,23 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
       <c r="C10" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1">
         <v>0.7</v>
@@ -1635,9 +2336,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1">
         <v>0.6</v>
@@ -1649,9 +2350,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1">
         <v>0.5</v>
@@ -1663,9 +2364,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1">
         <v>0.4</v>
@@ -1677,23 +2378,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1">
         <v>0.3</v>
       </c>
       <c r="C15" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>0.2</v>
@@ -1705,107 +2406,163 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB8FA1-99E9-434E-87F8-E93983AB5645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A8AA1D-397E-41C1-BFCD-6E0A799EDC8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97238A4F-4F92-49F7-846B-1FE86C432547}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="22.1785714285714" customWidth="1"/>
+    <col min="4" max="4" width="19.6428571428571" customWidth="1"/>
+    <col min="5" max="5" width="22.9107142857143" customWidth="1"/>
+    <col min="6" max="6" width="19.3392857142857" customWidth="1"/>
+    <col min="7" max="7" width="65.1785714285714" customWidth="1"/>
+    <col min="8" max="8" width="36.4553571428571" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
         <v>106</v>
       </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" ht="68" spans="1:8">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/Q版三国塔防需求文档 -- 2025-02-14.xlsx
+++ b/docs/Q版三国塔防需求文档 -- 2025-02-14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12960" firstSheet="3" activeTab="11"/>
+    <workbookView windowWidth="30240" windowHeight="12960" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
   <si>
     <t>游戏分类</t>
   </si>
@@ -190,9 +190,6 @@
     <t>装备类型</t>
   </si>
   <si>
-    <t>普通</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 稀有</t>
   </si>
   <si>
@@ -208,28 +205,22 @@
     <t>武器</t>
   </si>
   <si>
-    <t>攻击力 +5%，攻击速度 +2%</t>
-  </si>
-  <si>
-    <t>攻击力 +10%，攻击速度 +5%</t>
-  </si>
-  <si>
-    <t>攻击力 +15%，攻击速度 +10%</t>
-  </si>
-  <si>
-    <t>攻击力 +20%，攻击速度 +15%</t>
-  </si>
-  <si>
-    <t>攻击力 +30%，攻击速度 +20%</t>
+    <t>攻击力 +10，攻击速度 +5</t>
+  </si>
+  <si>
+    <t>攻击力 +15，攻击速度 +10</t>
+  </si>
+  <si>
+    <t>攻击力 +20，攻击速度 +15</t>
+  </si>
+  <si>
+    <t>攻击力 +30，攻击速度 +20</t>
   </si>
   <si>
     <t>护甲</t>
   </si>
   <si>
-    <t>防御力 +5%，生命值 +5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    防御力 +10%，生命值 +10%</t>
+    <t>防御力 +10%，生命值 +10%</t>
   </si>
   <si>
     <t>防御力 +15%，生命值 +15%</t>
@@ -244,9 +235,6 @@
     <t>护腿</t>
   </si>
   <si>
-    <t>防御力 +3%，攻击速度 +2%</t>
-  </si>
-  <si>
     <t>防御力 +6%，攻击速度 +4%</t>
   </si>
   <si>
@@ -262,9 +250,6 @@
     <t>配饰</t>
   </si>
   <si>
-    <t>暴击率 +2%，暴击伤害 +5%</t>
-  </si>
-  <si>
     <t>暴击率 +5%，暴击伤害 +10%</t>
   </si>
   <si>
@@ -292,7 +277,7 @@
     <t>等级 1 → 2</t>
   </si>
   <si>
-    <t xml:space="preserve">            100%（基础资源-锻造材料+铜币+银币+金币）</t>
+    <t xml:space="preserve">            100%（铁矿：100+铜币1000  ）</t>
   </si>
   <si>
     <t>等级 2 → 3</t>
@@ -326,6 +311,21 @@
   </si>
   <si>
     <t>装备属性</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>品级</t>
+  </si>
+  <si>
+    <t>强化等级</t>
   </si>
   <si>
     <t>每日任务</t>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>分解</t>
+  </si>
+  <si>
+    <t>普通</t>
   </si>
   <si>
     <t xml:space="preserve">       单体攻击，简单技能</t>
@@ -1428,7 +1431,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -1784,18 +1787,18 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1">
         <v>0.6</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>1500</v>
@@ -1807,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1">
         <v>0.25</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>2500</v>
@@ -1827,7 +1830,7 @@
         <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5" s="1">
         <v>0.1</v>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>4000</v>
@@ -1847,7 +1850,7 @@
         <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="1">
         <v>0.05</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1869,8 +1872,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1885,7 +1888,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>101</v>
@@ -1908,39 +1911,39 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1965,16 +1968,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2150,23 +2153,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="20.1964285714286" customWidth="1"/>
     <col min="2" max="2" width="34.1964285714286" customWidth="1"/>
     <col min="3" max="3" width="26.7946428571429" customWidth="1"/>
-    <col min="4" max="4" width="30.1339285714286" customWidth="1"/>
-    <col min="5" max="5" width="24.4017857142857" customWidth="1"/>
+    <col min="4" max="4" width="38.2410714285714" customWidth="1"/>
+    <col min="5" max="5" width="29.1696428571429" customWidth="1"/>
     <col min="6" max="6" width="27.5982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2182,107 +2185,92 @@
       <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2291,12 +2279,12 @@
         <v>0.05</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1">
         <v>0.9</v>
@@ -2310,7 +2298,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1">
         <v>0.8</v>
@@ -2324,7 +2312,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1">
         <v>0.7</v>
@@ -2338,7 +2326,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1">
         <v>0.6</v>
@@ -2352,7 +2340,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1">
         <v>0.5</v>
@@ -2366,7 +2354,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1">
         <v>0.4</v>
@@ -2380,7 +2368,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1">
         <v>0.3</v>
@@ -2394,7 +2382,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1">
         <v>0.2</v>
@@ -2408,23 +2396,38 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
         <v>92</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
         <v>94</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2495,7 +2498,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -2532,7 +2535,7 @@
         <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="68" spans="1:8">

--- a/docs/Q版三国塔防需求文档 -- 2025-02-14.xlsx
+++ b/docs/Q版三国塔防需求文档 -- 2025-02-14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12960" firstSheet="4" activeTab="5"/>
+    <workbookView windowWidth="30240" windowHeight="12960" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>游戏分类</t>
   </si>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t>装备</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>良好</t>
+  </si>
+  <si>
+    <t>精良</t>
+  </si>
+  <si>
+    <t>每日免费一次，和田玉100一次 ，十次900 50次必传说</t>
   </si>
   <si>
     <t>资源系统</t>
@@ -1431,7 +1443,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1731,13 +1743,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="11.7946428571429" customWidth="1"/>
     <col min="3" max="3" width="12.7946428571429" customWidth="1"/>
@@ -1856,9 +1868,49 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1940,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
         <v>101</v>
@@ -1911,39 +1963,39 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1968,16 +2020,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2207,7 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>

--- a/docs/Q版三国塔防需求文档 -- 2025-02-14.xlsx
+++ b/docs/Q版三国塔防需求文档 -- 2025-02-14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12960" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="30240" windowHeight="12960" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
   <si>
     <t>游戏分类</t>
   </si>
@@ -456,7 +456,7 @@
     <t>打怪，任务，活动，商城兑换，和田玉购买，武将回收</t>
   </si>
   <si>
-    <t>充值，商城兑换</t>
+    <t>充值，商城兑换（1RMB：10）</t>
   </si>
   <si>
     <t>使用场景</t>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>商城兑换，抽卡（高级宝箱）</t>
+  </si>
+  <si>
+    <t>资源\兑换的资源</t>
   </si>
   <si>
     <t>功能分类</t>
@@ -1443,7 +1446,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1745,8 +1748,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A8:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1922,15 +1925,15 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.5357142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.0625" customWidth="1"/>
     <col min="2" max="2" width="51.1875" customWidth="1"/>
     <col min="3" max="3" width="40.6160714285714" customWidth="1"/>
     <col min="4" max="4" width="48.2053571428571" customWidth="1"/>
@@ -1996,6 +1999,63 @@
       </c>
       <c r="F3" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2020,16 +2080,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
